--- a/TXAutomateWebOnly/src/test/resources/testData/TestData.xlsx
+++ b/TXAutomateWebOnly/src/test/resources/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="6830" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="18540" windowHeight="6830" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WebTestData" sheetId="3" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="Snapdeal" sheetId="9" r:id="rId6"/>
     <sheet name="Myntra" sheetId="10" r:id="rId7"/>
     <sheet name="eBay" sheetId="11" r:id="rId8"/>
+    <sheet name="MyeBay" sheetId="12" r:id="rId9"/>
+    <sheet name="ShopClues" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TestData</t>
   </si>
@@ -301,6 +303,53 @@
   </si>
   <si>
     <t>Led tv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0066CC"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UserName</t>
+    </r>
+  </si>
+  <si>
+    <t>SelectItem</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>saikrishnamada8@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cameras &amp; Photo</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.shopclues.com/</t>
   </si>
 </sst>
 </file>
@@ -313,7 +362,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,12 +377,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -824,135 +887,135 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,10 +1025,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1354,76 +1424,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1437,16 +1507,16 @@
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -1458,13 +1528,13 @@
       <c r="J2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="15" t="s">
         <v>35</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -1473,7 +1543,7 @@
       <c r="O2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="15" t="s">
         <v>38</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -1482,16 +1552,16 @@
       <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="15" t="s">
         <v>42</v>
       </c>
       <c r="W2" s="4" t="s">
@@ -1511,16 +1581,16 @@
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1537,7 +1607,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="Q3" s="4" t="s">
@@ -1546,16 +1616,16 @@
       <c r="R3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="15" t="s">
         <v>42</v>
       </c>
       <c r="W3" s="4" t="s">
@@ -1568,6 +1638,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.90909090909091" customWidth="1"/>
+    <col min="2" max="2" width="33.3636363636364" customWidth="1"/>
+    <col min="3" max="4" width="8.27272727272727" customWidth="1"/>
+    <col min="5" max="5" width="26.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="14.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="11.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="15.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="26" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="saikrishnamada@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="saikrishnamada8@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1584,8 +1743,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.5727272727273" customWidth="1"/>
-    <col min="2" max="2" width="26.8545454545455" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.7090909090909" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.8545454545455" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.7090909090909" style="14" customWidth="1"/>
     <col min="4" max="4" width="18.2818181818182" customWidth="1"/>
     <col min="5" max="5" width="20.7090909090909" customWidth="1"/>
     <col min="6" max="6" width="8.85454545454546" customWidth="1"/>
@@ -1593,7 +1752,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1602,16 +1761,16 @@
       <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1619,16 +1778,16 @@
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1642,16 +1801,16 @@
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1694,19 +1853,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1788,7 +1947,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1797,16 +1956,16 @@
       <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1814,16 +1973,16 @@
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1837,16 +1996,16 @@
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1890,7 +2049,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1899,16 +2058,16 @@
       <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1916,12 +2075,12 @@
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>76</v>
@@ -1949,7 +2108,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1960,7 +2119,7 @@
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1975,8 +2134,8 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -2017,7 +2176,7 @@
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2026,7 +2185,7 @@
       <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2043,4 +2202,94 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.90909090909091" customWidth="1"/>
+    <col min="2" max="2" width="37.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="14.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="11.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="26.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="14.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="11.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="27.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="15.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="saikrishnamada@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="saikrishnamada8@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TXAutomateWebOnly/src/test/resources/testData/TestData.xlsx
+++ b/TXAutomateWebOnly/src/test/resources/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="6830" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="18540" windowHeight="6830" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="WebTestData" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>TestData</t>
   </si>
@@ -349,6 +349,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TestData2</t>
+    </r>
+  </si>
+  <si>
     <t>https://www.shopclues.com/</t>
   </si>
 </sst>
@@ -362,7 +373,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +392,12 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0066CC"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
@@ -887,135 +904,135 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,11 +1048,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1424,76 +1444,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1507,16 +1527,16 @@
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -1528,13 +1548,13 @@
       <c r="J2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="16" t="s">
         <v>35</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -1543,7 +1563,7 @@
       <c r="O2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="16" t="s">
         <v>38</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -1552,16 +1572,16 @@
       <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="16" t="s">
         <v>42</v>
       </c>
       <c r="W2" s="4" t="s">
@@ -1581,16 +1601,16 @@
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1607,7 +1627,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="16" t="s">
         <v>38</v>
       </c>
       <c r="Q3" s="4" t="s">
@@ -1616,16 +1636,16 @@
       <c r="R3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="16" t="s">
         <v>42</v>
       </c>
       <c r="W3" s="4" t="s">
@@ -1647,13 +1667,13 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.90909090909091" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="33.3636363636364" customWidth="1"/>
     <col min="3" max="4" width="8.27272727272727" customWidth="1"/>
     <col min="5" max="5" width="26.9090909090909" customWidth="1"/>
@@ -1693,11 +1713,11 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>83</v>
@@ -1705,7 +1725,7 @@
       <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1714,10 +1734,10 @@
       <c r="G2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1743,8 +1763,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.5727272727273" customWidth="1"/>
-    <col min="2" max="2" width="26.8545454545455" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.7090909090909" style="14" customWidth="1"/>
+    <col min="2" max="2" width="26.8545454545455" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.7090909090909" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.2818181818182" customWidth="1"/>
     <col min="5" max="5" width="20.7090909090909" customWidth="1"/>
     <col min="6" max="6" width="8.85454545454546" customWidth="1"/>
@@ -1752,7 +1772,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1761,16 +1781,16 @@
       <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1778,16 +1798,16 @@
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1801,16 +1821,16 @@
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1853,19 +1873,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1932,7 +1952,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1947,7 +1967,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1956,16 +1976,16 @@
       <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1973,16 +1993,16 @@
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1996,16 +2016,16 @@
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2049,7 +2069,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2058,16 +2078,16 @@
       <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2075,12 +2095,12 @@
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="8"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>76</v>
@@ -2108,7 +2128,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2119,7 +2139,7 @@
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2176,7 +2196,7 @@
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2185,7 +2205,7 @@
       <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2209,7 +2229,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
@@ -2259,7 +2279,7 @@
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2268,7 +2288,7 @@
       <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2277,10 +2297,10 @@
       <c r="G2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>93</v>
       </c>
     </row>
